--- a/DataGenerator/XLSXS/StatsData.xlsx
+++ b/DataGenerator/XLSXS/StatsData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7828E313-A81A-42A4-8E3C-A127B1AE0604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366A2690-FB8E-46F6-AD24-43D0604CFFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>charID</t>
   </si>
@@ -169,6 +169,39 @@
   </si>
   <si>
     <t>마이</t>
+  </si>
+  <si>
+    <t>물리내구력(만분율)</t>
+  </si>
+  <si>
+    <t>마법내구력(만분율)</t>
+  </si>
+  <si>
+    <t>보호막</t>
+  </si>
+  <si>
+    <t>effectiveADHealth</t>
+  </si>
+  <si>
+    <t>effectiveAPHealth</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>전투력측정기M1</t>
+  </si>
+  <si>
+    <t>전투력측정기R1</t>
+  </si>
+  <si>
+    <t>방어봇 D1</t>
+  </si>
+  <si>
+    <t>공격봇 A1</t>
+  </si>
+  <si>
+    <t>지원봇 S1</t>
   </si>
 </sst>
 </file>
@@ -203,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -280,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -290,26 +329,41 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,7 +663,7 @@
     <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -658,8 +712,17 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -669,7 +732,7 @@
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -708,8 +771,17 @@
       <c r="P2" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -758,606 +830,916 @@
       <c r="P3" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>100000</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>100100</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="7">
-        <v>80</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="9">
+        <v>80</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
         <v>400</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>7300</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="9">
         <v>2500</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <v>15000</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>30</v>
-      </c>
-      <c r="L4" s="7">
-        <v>30</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>40</v>
-      </c>
-      <c r="P4" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>100001</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>30</v>
+      </c>
+      <c r="L4" s="9">
+        <v>30</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <v>40</v>
+      </c>
+      <c r="P4" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>100200</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
         <v>120</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>400</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>7300</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <v>2500</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="9">
         <v>15000</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>30</v>
-      </c>
-      <c r="L5" s="7">
-        <v>30</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>30</v>
+      </c>
+      <c r="L5" s="9">
+        <v>30</v>
+      </c>
+      <c r="M5" s="9">
         <v>4</v>
       </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>40</v>
-      </c>
-      <c r="P5" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>100002</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
+        <v>40</v>
+      </c>
+      <c r="P5" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>100300</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7">
-        <v>40</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="9">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
         <v>400</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>7300</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="9">
         <v>2500</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="9">
         <v>15000</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>40</v>
-      </c>
-      <c r="P6" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>100003</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>30</v>
+      </c>
+      <c r="L6" s="9">
+        <v>30</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9">
+        <v>40</v>
+      </c>
+      <c r="P6" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>100400</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="7">
-        <v>80</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="9">
+        <v>80</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>400</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>7300</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <v>2500</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="9">
         <v>15000</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>30</v>
-      </c>
-      <c r="L7" s="7">
-        <v>30</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>30</v>
+      </c>
+      <c r="L7" s="9">
+        <v>30</v>
+      </c>
+      <c r="M7" s="9">
         <v>4</v>
       </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>40</v>
-      </c>
-      <c r="P7" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>100004</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9">
-        <v>80</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
+        <v>40</v>
+      </c>
+      <c r="P7" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>100500</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="11">
+        <v>80</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>400</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>7500</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="11">
         <v>2500</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="11">
         <v>15000</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>30</v>
-      </c>
-      <c r="L8" s="9">
-        <v>30</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
-        <v>40</v>
-      </c>
-      <c r="P8" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>100005</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>30</v>
+      </c>
+      <c r="L8" s="11">
+        <v>30</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1</v>
+      </c>
+      <c r="O8" s="11">
+        <v>40</v>
+      </c>
+      <c r="P8" s="11">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>100600</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="9">
-        <v>80</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="11">
+        <v>80</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
         <v>400</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="11">
         <v>7500</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="11">
         <v>2500</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="11">
         <v>15000</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>30</v>
-      </c>
-      <c r="L9" s="9">
-        <v>30</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>30</v>
+      </c>
+      <c r="L9" s="11">
+        <v>30</v>
+      </c>
+      <c r="M9" s="11">
         <v>5</v>
       </c>
-      <c r="N9" s="9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="9">
-        <v>40</v>
-      </c>
-      <c r="P9" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>100006</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+      <c r="O9" s="11">
+        <v>40</v>
+      </c>
+      <c r="P9" s="11">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>100700</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="9">
-        <v>80</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="11">
+        <v>80</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>400</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="11">
         <v>7500</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="11">
         <v>2500</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="11">
         <v>15000</v>
       </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>30</v>
-      </c>
-      <c r="L10" s="9">
-        <v>30</v>
-      </c>
-      <c r="M10" s="9">
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>30</v>
+      </c>
+      <c r="L10" s="11">
+        <v>30</v>
+      </c>
+      <c r="M10" s="11">
         <v>2</v>
       </c>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
-        <v>40</v>
-      </c>
-      <c r="P10" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>100007</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11">
+        <v>40</v>
+      </c>
+      <c r="P10" s="11">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>100800</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
         <v>100</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>400</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="11">
         <v>7500</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="11">
         <v>2500</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="11">
         <v>15000</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>30</v>
-      </c>
-      <c r="L11" s="9">
-        <v>30</v>
-      </c>
-      <c r="M11" s="9">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>30</v>
+      </c>
+      <c r="L11" s="11">
+        <v>30</v>
+      </c>
+      <c r="M11" s="11">
         <v>3</v>
       </c>
-      <c r="N11" s="9">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9">
-        <v>40</v>
-      </c>
-      <c r="P11" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>100008</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11">
+        <v>40</v>
+      </c>
+      <c r="P11" s="11">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>100900</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="11">
-        <v>80</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="C12" s="13">
+        <v>80</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
         <v>400</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="13">
         <v>11000</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="13">
         <v>2500</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="13">
         <v>15000</v>
       </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>30</v>
-      </c>
-      <c r="L12" s="11">
-        <v>30</v>
-      </c>
-      <c r="M12" s="11">
-        <v>1</v>
-      </c>
-      <c r="N12" s="11">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
-        <v>40</v>
-      </c>
-      <c r="P12" s="11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>100009</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>30</v>
+      </c>
+      <c r="L12" s="13">
+        <v>30</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13">
+        <v>40</v>
+      </c>
+      <c r="P12" s="13">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>101000</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11">
-        <v>80</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="C13" s="13">
+        <v>80</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
         <v>400</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="13">
         <v>11000</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="13">
         <v>2500</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="13">
         <v>15000</v>
       </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>30</v>
-      </c>
-      <c r="L13" s="11">
-        <v>30</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>30</v>
+      </c>
+      <c r="L13" s="13">
+        <v>30</v>
+      </c>
+      <c r="M13" s="13">
         <v>3</v>
       </c>
-      <c r="N13" s="11">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
-        <v>40</v>
-      </c>
-      <c r="P13" s="11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
-        <v>100010</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="N13" s="13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>40</v>
+      </c>
+      <c r="P13" s="13">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>101100</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="11">
-        <v>80</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="C14" s="13">
+        <v>80</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
         <v>400</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="13">
         <v>11000</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="13">
         <v>2500</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="13">
         <v>15000</v>
       </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>30</v>
-      </c>
-      <c r="L14" s="11">
-        <v>30</v>
-      </c>
-      <c r="M14" s="11">
-        <v>1</v>
-      </c>
-      <c r="N14" s="11">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
-        <v>40</v>
-      </c>
-      <c r="P14" s="11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
-        <v>100011</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>30</v>
+      </c>
+      <c r="L14" s="13">
+        <v>30</v>
+      </c>
+      <c r="M14" s="13">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13">
+        <v>40</v>
+      </c>
+      <c r="P14" s="13">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>101200</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>40</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
+        <v>40</v>
+      </c>
+      <c r="E15" s="13">
         <v>400</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="13">
         <v>11000</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="13">
         <v>2500</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="13">
         <v>15000</v>
       </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>30</v>
-      </c>
-      <c r="L15" s="11">
-        <v>30</v>
-      </c>
-      <c r="M15" s="11">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>30</v>
+      </c>
+      <c r="L15" s="13">
+        <v>30</v>
+      </c>
+      <c r="M15" s="13">
         <v>4</v>
       </c>
-      <c r="N15" s="11">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11">
-        <v>40</v>
-      </c>
-      <c r="P15" s="11">
-        <v>80</v>
-      </c>
+      <c r="N15" s="13">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13">
+        <v>40</v>
+      </c>
+      <c r="P15" s="13">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>110000</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="15">
+        <v>60</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>500</v>
+      </c>
+      <c r="F16" s="15">
+        <v>6000</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>40</v>
+      </c>
+      <c r="L16" s="15">
+        <v>40</v>
+      </c>
+      <c r="M16" s="15">
+        <v>2</v>
+      </c>
+      <c r="N16" s="15">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>110100</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>60</v>
+      </c>
+      <c r="E17" s="15">
+        <v>500</v>
+      </c>
+      <c r="F17" s="15">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>40</v>
+      </c>
+      <c r="L17" s="15">
+        <v>40</v>
+      </c>
+      <c r="M17" s="15">
+        <v>4</v>
+      </c>
+      <c r="N17" s="15">
+        <v>1</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+    </row>
+    <row r="18" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>110200</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="15">
+        <v>60</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>600</v>
+      </c>
+      <c r="F18" s="15">
+        <v>6000</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>50</v>
+      </c>
+      <c r="L18" s="15">
+        <v>50</v>
+      </c>
+      <c r="M18" s="15">
+        <v>1</v>
+      </c>
+      <c r="N18" s="15">
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
+        <v>30</v>
+      </c>
+      <c r="P18" s="15">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>110300</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>150</v>
+      </c>
+      <c r="E19" s="15">
+        <v>300</v>
+      </c>
+      <c r="F19" s="15">
+        <v>8000</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>25</v>
+      </c>
+      <c r="L19" s="15">
+        <v>25</v>
+      </c>
+      <c r="M19" s="15">
+        <v>5</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>30</v>
+      </c>
+      <c r="P19" s="15">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
+        <v>110400</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>80</v>
+      </c>
+      <c r="E20" s="15">
+        <v>500</v>
+      </c>
+      <c r="F20" s="15">
+        <v>7000</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>30</v>
+      </c>
+      <c r="L20" s="15">
+        <v>30</v>
+      </c>
+      <c r="M20" s="15">
+        <v>3</v>
+      </c>
+      <c r="N20" s="15">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15">
+        <v>30</v>
+      </c>
+      <c r="P20" s="15">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataGenerator/XLSXS/StatsData.xlsx
+++ b/DataGenerator/XLSXS/StatsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510AC2FD-11AE-4D94-9357-C8B91C75EDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B428194-8E5B-4391-8112-F397489C891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="1335" windowWidth="23040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>charID</t>
   </si>
@@ -147,21 +147,6 @@
     <t>보호막</t>
   </si>
   <si>
-    <t>전투력측정기M1</t>
-  </si>
-  <si>
-    <t>전투력측정기R1</t>
-  </si>
-  <si>
-    <t>방어봇 D1</t>
-  </si>
-  <si>
-    <t>공격봇 A1</t>
-  </si>
-  <si>
-    <t>지원봇 S1</t>
-  </si>
-  <si>
     <t>#실체력(방어력)</t>
   </si>
   <si>
@@ -213,10 +198,88 @@
     <t>이시스</t>
   </si>
   <si>
-    <t>MECHA:TIDY</t>
-  </si>
-  <si>
     <t>barrier</t>
+  </si>
+  <si>
+    <t>메카:티디</t>
+  </si>
+  <si>
+    <t>터틀</t>
+  </si>
+  <si>
+    <t>래빗</t>
+  </si>
+  <si>
+    <t>갤럭시</t>
+  </si>
+  <si>
+    <t>포시티아</t>
+  </si>
+  <si>
+    <t>0100100</t>
+  </si>
+  <si>
+    <t>0100200</t>
+  </si>
+  <si>
+    <t>0100300</t>
+  </si>
+  <si>
+    <t>0100400</t>
+  </si>
+  <si>
+    <t>0100500</t>
+  </si>
+  <si>
+    <t>0100600</t>
+  </si>
+  <si>
+    <t>0100700</t>
+  </si>
+  <si>
+    <t>0100800</t>
+  </si>
+  <si>
+    <t>0100900</t>
+  </si>
+  <si>
+    <t>0101000</t>
+  </si>
+  <si>
+    <t>0101100</t>
+  </si>
+  <si>
+    <t>0101200</t>
+  </si>
+  <si>
+    <t>0101300</t>
+  </si>
+  <si>
+    <t>0101400</t>
+  </si>
+  <si>
+    <t>0101500</t>
+  </si>
+  <si>
+    <t>0101600</t>
+  </si>
+  <si>
+    <t>0101601</t>
+  </si>
+  <si>
+    <t>0101602</t>
+  </si>
+  <si>
+    <t>0101700</t>
+  </si>
+  <si>
+    <t>0101800</t>
+  </si>
+  <si>
+    <t>0101900</t>
+  </si>
+  <si>
+    <t>0102000</t>
   </si>
 </sst>
 </file>
@@ -245,7 +308,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,12 +359,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -368,23 +425,32 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A4" sqref="A4:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -731,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>11</v>
@@ -746,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>39</v>
@@ -769,10 +835,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
@@ -790,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>25</v>
@@ -808,10 +874,10 @@
         <v>26</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -831,10 +897,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>29</v>
@@ -877,8 +943,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>100100</v>
+      <c r="A4" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
@@ -939,8 +1005,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>100200</v>
+      <c r="A5" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -1001,8 +1067,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>100300</v>
+      <c r="A6" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
@@ -1063,8 +1129,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>100400</v>
+      <c r="A7" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
@@ -1125,8 +1191,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>100500</v>
+      <c r="A8" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -1187,8 +1253,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>100600</v>
+      <c r="A9" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -1249,8 +1315,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>100700</v>
+      <c r="A10" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>37</v>
@@ -1311,8 +1377,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>100800</v>
+      <c r="A11" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>38</v>
@@ -1373,11 +1439,11 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>100900</v>
+      <c r="A12" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C12" s="10">
         <v>80</v>
@@ -1435,11 +1501,11 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>101000</v>
+      <c r="A13" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="10">
         <v>80</v>
@@ -1497,11 +1563,11 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>101100</v>
+      <c r="A14" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10">
         <v>80</v>
@@ -1559,11 +1625,11 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>101200</v>
+      <c r="A15" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" s="10">
         <v>0</v>
@@ -1621,14 +1687,18 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>101300</v>
+      <c r="A16" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>80</v>
+      </c>
       <c r="E16" s="12">
         <v>400</v>
       </c>
@@ -1638,7 +1708,9 @@
       <c r="G16" s="12">
         <v>520</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="12">
+        <v>7500</v>
+      </c>
       <c r="I16" s="12">
         <v>2500</v>
       </c>
@@ -1667,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="12">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S16" s="12">
         <v>0</v>
@@ -1677,14 +1749,18 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
-        <v>101400</v>
+      <c r="A17" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="C17" s="12">
+        <v>80</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
       <c r="E17" s="12">
         <v>400</v>
       </c>
@@ -1694,7 +1770,9 @@
       <c r="G17" s="12">
         <v>520</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="12">
+        <v>7500</v>
+      </c>
       <c r="I17" s="12">
         <v>2500</v>
       </c>
@@ -1733,14 +1811,18 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
-        <v>101500</v>
+      <c r="A18" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>50</v>
+      </c>
       <c r="E18" s="12">
         <v>400</v>
       </c>
@@ -1750,7 +1832,9 @@
       <c r="G18" s="12">
         <v>520</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="12">
+        <v>7500</v>
+      </c>
       <c r="I18" s="12">
         <v>2500</v>
       </c>
@@ -1789,11 +1873,11 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
-        <v>101600</v>
+      <c r="A19" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C19" s="12">
         <v>30</v>
@@ -1851,11 +1935,11 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
-        <v>101601</v>
+      <c r="A20" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="12">
         <v>50</v>
@@ -1913,11 +1997,11 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
-        <v>101602</v>
+      <c r="A21" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="12">
         <v>70</v>
@@ -1975,34 +2059,60 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13">
-        <v>101700</v>
-      </c>
-      <c r="B22" s="13"/>
+      <c r="A22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="C22" s="14">
         <v>0</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="14">
+        <v>60</v>
+      </c>
+      <c r="E22" s="14">
+        <v>400</v>
+      </c>
       <c r="F22" s="14">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+        <v>520</v>
+      </c>
+      <c r="H22" s="14">
+        <v>7500</v>
+      </c>
+      <c r="I22" s="14">
+        <v>2500</v>
+      </c>
+      <c r="J22" s="14">
+        <v>15000</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>50</v>
+      </c>
+      <c r="N22" s="14">
+        <v>50</v>
+      </c>
+      <c r="O22" s="14">
+        <v>1</v>
+      </c>
       <c r="P22" s="14">
         <v>1</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="Q22" s="14">
+        <v>50</v>
+      </c>
+      <c r="R22" s="14">
+        <v>80</v>
+      </c>
       <c r="S22" s="14">
         <v>0</v>
       </c>
@@ -2011,34 +2121,60 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
-        <v>101800</v>
-      </c>
-      <c r="B23" s="13"/>
+      <c r="A23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="C23" s="14">
         <v>0</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="14">
+        <v>100</v>
+      </c>
+      <c r="E23" s="14">
+        <v>400</v>
+      </c>
       <c r="F23" s="14">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="G23" s="14">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+        <v>520</v>
+      </c>
+      <c r="H23" s="14">
+        <v>7500</v>
+      </c>
+      <c r="I23" s="14">
+        <v>2500</v>
+      </c>
+      <c r="J23" s="14">
+        <v>15000</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>50</v>
+      </c>
+      <c r="N23" s="14">
+        <v>50</v>
+      </c>
+      <c r="O23" s="14">
+        <v>5</v>
+      </c>
       <c r="P23" s="14">
         <v>1</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="Q23" s="14">
+        <v>20</v>
+      </c>
+      <c r="R23" s="14">
+        <v>90</v>
+      </c>
       <c r="S23" s="14">
         <v>0</v>
       </c>
@@ -2047,34 +2183,60 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13">
-        <v>101900</v>
-      </c>
-      <c r="B24" s="13"/>
+      <c r="A24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="C24" s="14">
         <v>0</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="14">
+        <v>80</v>
+      </c>
+      <c r="E24" s="14">
+        <v>400</v>
+      </c>
       <c r="F24" s="14">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="G24" s="14">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+        <v>520</v>
+      </c>
+      <c r="H24" s="14">
+        <v>7500</v>
+      </c>
+      <c r="I24" s="14">
+        <v>2500</v>
+      </c>
+      <c r="J24" s="14">
+        <v>15000</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>50</v>
+      </c>
+      <c r="N24" s="14">
+        <v>50</v>
+      </c>
+      <c r="O24" s="14">
+        <v>4</v>
+      </c>
       <c r="P24" s="14">
         <v>1</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="Q24" s="14">
+        <v>10</v>
+      </c>
+      <c r="R24" s="14">
+        <v>70</v>
+      </c>
       <c r="S24" s="14">
         <v>0</v>
       </c>
@@ -2083,348 +2245,64 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13">
-        <v>102000</v>
-      </c>
-      <c r="B25" s="13"/>
+      <c r="A25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="C25" s="14">
         <v>0</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="14">
+        <v>60</v>
+      </c>
+      <c r="E25" s="14">
+        <v>400</v>
+      </c>
       <c r="F25" s="14">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="G25" s="14">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+        <v>520</v>
+      </c>
+      <c r="H25" s="14">
+        <v>7500</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2500</v>
+      </c>
+      <c r="J25" s="14">
+        <v>15000</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>50</v>
+      </c>
+      <c r="N25" s="14">
+        <v>50</v>
+      </c>
+      <c r="O25" s="14">
+        <v>3</v>
+      </c>
       <c r="P25" s="14">
         <v>1</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
+      <c r="Q25" s="14">
+        <v>10</v>
+      </c>
+      <c r="R25" s="14">
+        <v>60</v>
+      </c>
       <c r="S25" s="14">
         <v>0</v>
       </c>
       <c r="T25" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
-        <v>110000</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="16">
-        <v>60</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>500</v>
-      </c>
-      <c r="F26" s="16">
-        <v>700</v>
-      </c>
-      <c r="G26" s="16">
-        <v>700</v>
-      </c>
-      <c r="H26" s="16">
-        <v>6000</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <v>40</v>
-      </c>
-      <c r="N26" s="16">
-        <v>40</v>
-      </c>
-      <c r="O26" s="16">
-        <v>1</v>
-      </c>
-      <c r="P26" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="16">
-        <v>0</v>
-      </c>
-      <c r="R26" s="16">
-        <v>0</v>
-      </c>
-      <c r="S26" s="16">
-        <v>0</v>
-      </c>
-      <c r="T26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15">
-        <v>110100</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <v>60</v>
-      </c>
-      <c r="E27" s="16">
-        <v>500</v>
-      </c>
-      <c r="F27" s="16">
-        <v>700</v>
-      </c>
-      <c r="G27" s="16">
-        <v>700</v>
-      </c>
-      <c r="H27" s="16">
-        <v>6000</v>
-      </c>
-      <c r="I27" s="16">
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <v>0</v>
-      </c>
-      <c r="K27" s="16">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16">
-        <v>0</v>
-      </c>
-      <c r="M27" s="16">
-        <v>40</v>
-      </c>
-      <c r="N27" s="16">
-        <v>40</v>
-      </c>
-      <c r="O27" s="16">
-        <v>4</v>
-      </c>
-      <c r="P27" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>0</v>
-      </c>
-      <c r="R27" s="16">
-        <v>0</v>
-      </c>
-      <c r="S27" s="16">
-        <v>0</v>
-      </c>
-      <c r="T27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15">
-        <v>110200</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="16">
-        <v>60</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>600</v>
-      </c>
-      <c r="F28" s="16">
-        <v>900</v>
-      </c>
-      <c r="G28" s="16">
-        <v>900</v>
-      </c>
-      <c r="H28" s="16">
-        <v>6000</v>
-      </c>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <v>0</v>
-      </c>
-      <c r="L28" s="16">
-        <v>0</v>
-      </c>
-      <c r="M28" s="16">
-        <v>50</v>
-      </c>
-      <c r="N28" s="16">
-        <v>50</v>
-      </c>
-      <c r="O28" s="16">
-        <v>1</v>
-      </c>
-      <c r="P28" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="16">
-        <v>30</v>
-      </c>
-      <c r="R28" s="16">
-        <v>60</v>
-      </c>
-      <c r="S28" s="16">
-        <v>0</v>
-      </c>
-      <c r="T28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15">
-        <v>110300</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <v>150</v>
-      </c>
-      <c r="E29" s="16">
-        <v>300</v>
-      </c>
-      <c r="F29" s="16">
-        <v>375</v>
-      </c>
-      <c r="G29" s="16">
-        <v>375</v>
-      </c>
-      <c r="H29" s="16">
-        <v>8000</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0</v>
-      </c>
-      <c r="K29" s="16">
-        <v>0</v>
-      </c>
-      <c r="L29" s="16">
-        <v>0</v>
-      </c>
-      <c r="M29" s="16">
-        <v>25</v>
-      </c>
-      <c r="N29" s="16">
-        <v>25</v>
-      </c>
-      <c r="O29" s="16">
-        <v>4</v>
-      </c>
-      <c r="P29" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="16">
-        <v>30</v>
-      </c>
-      <c r="R29" s="16">
-        <v>60</v>
-      </c>
-      <c r="S29" s="16">
-        <v>0</v>
-      </c>
-      <c r="T29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15">
-        <v>110400</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <v>80</v>
-      </c>
-      <c r="E30" s="16">
-        <v>500</v>
-      </c>
-      <c r="F30" s="16">
-        <v>650</v>
-      </c>
-      <c r="G30" s="16">
-        <v>650</v>
-      </c>
-      <c r="H30" s="16">
-        <v>7000</v>
-      </c>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-      <c r="K30" s="16">
-        <v>0</v>
-      </c>
-      <c r="L30" s="16">
-        <v>0</v>
-      </c>
-      <c r="M30" s="16">
-        <v>30</v>
-      </c>
-      <c r="N30" s="16">
-        <v>30</v>
-      </c>
-      <c r="O30" s="16">
-        <v>4</v>
-      </c>
-      <c r="P30" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="16">
-        <v>30</v>
-      </c>
-      <c r="R30" s="16">
-        <v>60</v>
-      </c>
-      <c r="S30" s="16">
-        <v>0</v>
-      </c>
-      <c r="T30" s="16">
         <v>0</v>
       </c>
     </row>

--- a/DataGenerator/XLSXS/StatsData.xlsx
+++ b/DataGenerator/XLSXS/StatsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B428194-8E5B-4391-8112-F397489C891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D8A48F-3B8A-4962-BB6B-FB78FA9982A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1335" windowWidth="23040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="1395" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>charID</t>
   </si>
@@ -201,9 +201,6 @@
     <t>barrier</t>
   </si>
   <si>
-    <t>메카:티디</t>
-  </si>
-  <si>
     <t>터틀</t>
   </si>
   <si>
@@ -264,12 +261,6 @@
     <t>0101600</t>
   </si>
   <si>
-    <t>0101601</t>
-  </si>
-  <si>
-    <t>0101602</t>
-  </si>
-  <si>
     <t>0101700</t>
   </si>
   <si>
@@ -280,13 +271,144 @@
   </si>
   <si>
     <t>0102000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메카</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +428,20 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="11">
@@ -397,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -450,6 +586,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -734,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,7 +1083,7 @@
     </row>
     <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
@@ -1006,7 +1145,7 @@
     </row>
     <row r="5" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -1068,7 +1207,7 @@
     </row>
     <row r="6" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
@@ -1130,7 +1269,7 @@
     </row>
     <row r="7" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
@@ -1192,7 +1331,7 @@
     </row>
     <row r="8" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
@@ -1254,7 +1393,7 @@
     </row>
     <row r="9" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -1316,7 +1455,7 @@
     </row>
     <row r="10" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>37</v>
@@ -1378,7 +1517,7 @@
     </row>
     <row r="11" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>38</v>
@@ -1440,7 +1579,7 @@
     </row>
     <row r="12" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>50</v>
@@ -1502,7 +1641,7 @@
     </row>
     <row r="13" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>51</v>
@@ -1564,7 +1703,7 @@
     </row>
     <row r="14" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>52</v>
@@ -1626,7 +1765,7 @@
     </row>
     <row r="15" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>53</v>
@@ -1688,7 +1827,7 @@
     </row>
     <row r="16" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>54</v>
@@ -1750,7 +1889,7 @@
     </row>
     <row r="17" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>55</v>
@@ -1812,7 +1951,7 @@
     </row>
     <row r="18" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>56</v>
@@ -1874,10 +2013,10 @@
     </row>
     <row r="19" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="12">
         <v>30</v>
@@ -1936,10 +2075,10 @@
     </row>
     <row r="20" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>58</v>
+        <v>85</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="12">
         <v>50</v>
@@ -1998,10 +2137,10 @@
     </row>
     <row r="21" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>58</v>
+        <v>86</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="12">
         <v>70</v>
@@ -2060,10 +2199,10 @@
     </row>
     <row r="22" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="14">
         <v>0</v>
@@ -2122,10 +2261,10 @@
     </row>
     <row r="23" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="14">
         <v>0</v>
@@ -2184,10 +2323,10 @@
     </row>
     <row r="24" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="14">
         <v>0</v>
@@ -2246,10 +2385,10 @@
     </row>
     <row r="25" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="14">
         <v>0</v>

--- a/DataGenerator/XLSXS/StatsData.xlsx
+++ b/DataGenerator/XLSXS/StatsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ykim0\OneDrive\바탕 화면\makE\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D8A48F-3B8A-4962-BB6B-FB78FA9982A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D058F3EF-B0A6-431E-800D-53F54A6A3C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1395" windowWidth="24720" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="22515" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharData" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2247,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="Q22" s="14">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R22" s="14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
